--- a/程序/表A-手工数据母表.xlsx
+++ b/程序/表A-手工数据母表.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="母表" sheetId="1" r:id="rId1"/>
     <sheet name="已删除账号信息表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="待发省联社取数" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">母表!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">母表!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="168">
   <si>
     <t>序号</t>
   </si>
@@ -48,142 +48,481 @@
     <t>测试单位1</t>
   </si>
   <si>
+    <t>42272319591018125X</t>
+  </si>
+  <si>
+    <t>6210137281175123</t>
+  </si>
+  <si>
+    <t>杨明想</t>
+  </si>
+  <si>
+    <t>测试项目1</t>
+  </si>
+  <si>
+    <t>测试单位2</t>
+  </si>
+  <si>
+    <t>422723195801011279</t>
+  </si>
+  <si>
+    <t>6224122013833123</t>
+  </si>
+  <si>
+    <t>金想</t>
+  </si>
+  <si>
+    <t>测试项目2</t>
+  </si>
+  <si>
+    <t>测试单位3</t>
+  </si>
+  <si>
+    <t>422723195903111217</t>
+  </si>
+  <si>
+    <t>6224120064238123</t>
+  </si>
+  <si>
+    <t>邬祥想</t>
+  </si>
+  <si>
+    <t>测试项目3</t>
+  </si>
+  <si>
+    <t>测试单位4</t>
+  </si>
+  <si>
+    <t>422723195205191221</t>
+  </si>
+  <si>
+    <t>4212804286480123</t>
+  </si>
+  <si>
+    <t>雷全想</t>
+  </si>
+  <si>
+    <t>测试项目4</t>
+  </si>
+  <si>
+    <t>测试单位5</t>
+  </si>
+  <si>
+    <t>422723195406131212</t>
+  </si>
+  <si>
+    <t>4212892684330123</t>
+  </si>
+  <si>
+    <t>王德想</t>
+  </si>
+  <si>
+    <t>测试项目5</t>
+  </si>
+  <si>
+    <t>测试单位6</t>
+  </si>
+  <si>
+    <t>420583195206131216</t>
+  </si>
+  <si>
+    <t>4213552396800123</t>
+  </si>
+  <si>
+    <t>王守想</t>
+  </si>
+  <si>
+    <t>测试项目6</t>
+  </si>
+  <si>
+    <t>测试单位7</t>
+  </si>
+  <si>
+    <t>422723195812041223</t>
+  </si>
+  <si>
+    <t>4212802248070123</t>
+  </si>
+  <si>
+    <t>蒋莲想</t>
+  </si>
+  <si>
+    <t>测试项目7</t>
+  </si>
+  <si>
+    <t>测试单位8</t>
+  </si>
+  <si>
+    <t>422723193808231215</t>
+  </si>
+  <si>
+    <t>81010000611532123</t>
+  </si>
+  <si>
+    <t>代绍想</t>
+  </si>
+  <si>
+    <t>测试项目8</t>
+  </si>
+  <si>
+    <t>测试单位9</t>
+  </si>
+  <si>
+    <t>42058320020203121X</t>
+  </si>
+  <si>
+    <t>81010000615607123</t>
+  </si>
+  <si>
+    <t>鲍起想</t>
+  </si>
+  <si>
+    <t>测试项目9</t>
+  </si>
+  <si>
+    <t>测试单位10</t>
+  </si>
+  <si>
+    <t>42272319640215123X</t>
+  </si>
+  <si>
+    <t>81010000198605123</t>
+  </si>
+  <si>
+    <t>周德想</t>
+  </si>
+  <si>
+    <t>测试项目10</t>
+  </si>
+  <si>
+    <t>测试单位11</t>
+  </si>
+  <si>
+    <t>42272319571001121X</t>
+  </si>
+  <si>
+    <t>81010000195710123</t>
+  </si>
+  <si>
+    <t>宋秀想</t>
+  </si>
+  <si>
+    <t>测试项目11</t>
+  </si>
+  <si>
+    <t>测试单位12</t>
+  </si>
+  <si>
+    <t>422723197009171217</t>
+  </si>
+  <si>
+    <t>81010000162885123</t>
+  </si>
+  <si>
+    <t>胡家想</t>
+  </si>
+  <si>
+    <t>测试项目12</t>
+  </si>
+  <si>
+    <t>测试单位13</t>
+  </si>
+  <si>
+    <t>422723197709291258</t>
+  </si>
+  <si>
+    <t>81010000124060123</t>
+  </si>
+  <si>
+    <t>龚玉想</t>
+  </si>
+  <si>
+    <t>测试项目13</t>
+  </si>
+  <si>
+    <t>测试单位14</t>
+  </si>
+  <si>
+    <t>422723196702151231</t>
+  </si>
+  <si>
+    <t>81010000147720123</t>
+  </si>
+  <si>
+    <t>朱光想</t>
+  </si>
+  <si>
+    <t>测试项目14</t>
+  </si>
+  <si>
+    <t>测试单位15</t>
+  </si>
+  <si>
+    <t>422723197203051257</t>
+  </si>
+  <si>
+    <t>81010000124243123</t>
+  </si>
+  <si>
+    <t>肖想</t>
+  </si>
+  <si>
+    <t>测试项目15</t>
+  </si>
+  <si>
+    <t>测试单位16</t>
+  </si>
+  <si>
+    <t>42272919540429121X</t>
+  </si>
+  <si>
+    <t>81010000106909123</t>
+  </si>
+  <si>
+    <t>孟治想</t>
+  </si>
+  <si>
+    <t>测试项目16</t>
+  </si>
+  <si>
+    <t>测试单位17</t>
+  </si>
+  <si>
+    <t>422723197111111234</t>
+  </si>
+  <si>
+    <t>6224121173224123</t>
+  </si>
+  <si>
+    <t>贺友想</t>
+  </si>
+  <si>
+    <t>测试项目17</t>
+  </si>
+  <si>
+    <t>测试单位18</t>
+  </si>
+  <si>
+    <t>422723196601011215</t>
+  </si>
+  <si>
+    <t>81010000138445123</t>
+  </si>
+  <si>
+    <t>马协想</t>
+  </si>
+  <si>
+    <t>测试项目18</t>
+  </si>
+  <si>
+    <t>测试单位19</t>
+  </si>
+  <si>
+    <t>422723197006091251</t>
+  </si>
+  <si>
+    <t>4212275962180123</t>
+  </si>
+  <si>
+    <t>徐绍想</t>
+  </si>
+  <si>
+    <t>测试项目19</t>
+  </si>
+  <si>
+    <t>测试单位20</t>
+  </si>
+  <si>
+    <t>422723197007251237</t>
+  </si>
+  <si>
+    <t>4213672963550123</t>
+  </si>
+  <si>
+    <t>王金想</t>
+  </si>
+  <si>
+    <t>测试项目20</t>
+  </si>
+  <si>
+    <t>测试单位21</t>
+  </si>
+  <si>
+    <t>422723196703251252</t>
+  </si>
+  <si>
+    <t>4213079495680123</t>
+  </si>
+  <si>
+    <t>付想</t>
+  </si>
+  <si>
+    <t>测试项目21</t>
+  </si>
+  <si>
+    <t>测试单位22</t>
+  </si>
+  <si>
+    <t>422723197003121216</t>
+  </si>
+  <si>
+    <t>4211126389920123</t>
+  </si>
+  <si>
+    <t>李春想</t>
+  </si>
+  <si>
+    <t>测试项目22</t>
+  </si>
+  <si>
+    <t>测试单位23</t>
+  </si>
+  <si>
+    <t>420523196611101241</t>
+  </si>
+  <si>
+    <t>6210130993032123</t>
+  </si>
+  <si>
+    <t>邓家想</t>
+  </si>
+  <si>
+    <t>测试项目23</t>
+  </si>
+  <si>
+    <t>测试单位24</t>
+  </si>
+  <si>
+    <t>420583197308221211</t>
+  </si>
+  <si>
+    <t>81010000717553123</t>
+  </si>
+  <si>
+    <t>李进想</t>
+  </si>
+  <si>
+    <t>测试项目24</t>
+  </si>
+  <si>
+    <t>测试单位25</t>
+  </si>
+  <si>
+    <t>420523197905101211</t>
+  </si>
+  <si>
+    <t>6210137296519123</t>
+  </si>
+  <si>
+    <t>周江想</t>
+  </si>
+  <si>
+    <t>测试项目25</t>
+  </si>
+  <si>
+    <t>测试单位26</t>
+  </si>
+  <si>
+    <t>422723197609221236</t>
+  </si>
+  <si>
+    <t>6210130005263123</t>
+  </si>
+  <si>
+    <t>杜想</t>
+  </si>
+  <si>
+    <t>测试项目26</t>
+  </si>
+  <si>
+    <t>测试单位27</t>
+  </si>
+  <si>
+    <t>422723197105081257</t>
+  </si>
+  <si>
+    <t>6210130005276123</t>
+  </si>
+  <si>
+    <t>高传想</t>
+  </si>
+  <si>
+    <t>测试项目27</t>
+  </si>
+  <si>
+    <t>测试单位28</t>
+  </si>
+  <si>
+    <t>420583198510251216</t>
+  </si>
+  <si>
+    <t>6210134094329123</t>
+  </si>
+  <si>
+    <t>蔡江想</t>
+  </si>
+  <si>
+    <t>测试项目28</t>
+  </si>
+  <si>
+    <t>测试单位29</t>
+  </si>
+  <si>
+    <t>420583198412251215</t>
+  </si>
+  <si>
+    <t>6210135642550123</t>
+  </si>
+  <si>
+    <t>吕昌想</t>
+  </si>
+  <si>
+    <t>测试项目29</t>
+  </si>
+  <si>
+    <t>测试单位30</t>
+  </si>
+  <si>
+    <t>422723195802091220</t>
+  </si>
+  <si>
+    <t>81010000187306123xxxxx</t>
+  </si>
+  <si>
+    <t>孟凡想</t>
+  </si>
+  <si>
+    <t>测试项目30</t>
+  </si>
+  <si>
+    <t>测试单位31</t>
+  </si>
+  <si>
     <t>422721195309051211</t>
   </si>
   <si>
-    <t>81010000208587123</t>
-  </si>
-  <si>
     <t>李应想</t>
   </si>
   <si>
-    <t>测试补贴1</t>
-  </si>
-  <si>
-    <t>测试单位2</t>
-  </si>
-  <si>
-    <t>42272919540429121X</t>
-  </si>
-  <si>
-    <t>8101000010690912z</t>
-  </si>
-  <si>
-    <t>孟治想</t>
-  </si>
-  <si>
-    <t>测试补贴2</t>
-  </si>
-  <si>
-    <t>测试单位3</t>
-  </si>
-  <si>
-    <t>422723197709291258</t>
-  </si>
-  <si>
-    <t>8101000012406012z</t>
-  </si>
-  <si>
-    <t>龚玉想</t>
-  </si>
-  <si>
-    <t>测试补贴3</t>
-  </si>
-  <si>
-    <t>测试单位4</t>
-  </si>
-  <si>
-    <t>422723197203051257</t>
-  </si>
-  <si>
-    <t>8101000012424312z</t>
-  </si>
-  <si>
-    <t>肖想</t>
-  </si>
-  <si>
-    <t>测试补贴4</t>
-  </si>
-  <si>
-    <t>测试单位5</t>
-  </si>
-  <si>
-    <t>422723196601011215</t>
-  </si>
-  <si>
-    <t>6230111111zzzz</t>
-  </si>
-  <si>
-    <t>马协想</t>
-  </si>
-  <si>
-    <t>测试补贴5</t>
-  </si>
-  <si>
-    <t>测试单位6</t>
-  </si>
-  <si>
-    <t>422723197006091251</t>
-  </si>
-  <si>
-    <t>8101000014773412z</t>
-  </si>
-  <si>
-    <t>徐绍想</t>
-  </si>
-  <si>
-    <t>测试补贴6</t>
-  </si>
-  <si>
-    <t>测试单位7</t>
-  </si>
-  <si>
-    <t>422723195802091220</t>
-  </si>
-  <si>
-    <t>81010000187306123</t>
-  </si>
-  <si>
-    <t>孟凡想</t>
-  </si>
-  <si>
-    <t>测试补贴7</t>
-  </si>
-  <si>
-    <t>测试单位9</t>
-  </si>
-  <si>
-    <t>42272319571001121z</t>
-  </si>
-  <si>
-    <t>81010000195710123</t>
-  </si>
-  <si>
-    <t>宋秀想</t>
-  </si>
-  <si>
-    <t>测试补贴9</t>
-  </si>
-  <si>
-    <t>测试单位10</t>
-  </si>
-  <si>
-    <t>42272319640215123z</t>
-  </si>
-  <si>
-    <t>8101000019860512z</t>
-  </si>
-  <si>
-    <t>周德想</t>
-  </si>
-  <si>
-    <t>测试补贴10</t>
+    <t>测试项目31</t>
   </si>
   <si>
     <t>删除日期</t>
   </si>
   <si>
-    <t>删除时账户状态</t>
+    <t>删除时账号状态</t>
+  </si>
+  <si>
+    <t>代发身份证号</t>
+  </si>
+  <si>
+    <t>代发账户</t>
+  </si>
+  <si>
+    <t>代发户名</t>
+  </si>
+  <si>
+    <t>补贴项目</t>
   </si>
 </sst>
 </file>
@@ -191,11 +530,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -221,6 +560,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -236,11 +583,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,8 +620,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,21 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -321,22 +675,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,187 +698,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +895,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,21 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -608,15 +962,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,137 +1015,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,7 +1155,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,14 +1216,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1177,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1231,7 +1575,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1254,10 +1598,10 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1280,10 +1624,10 @@
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1306,10 +1650,10 @@
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1332,10 +1676,10 @@
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1358,10 +1702,10 @@
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1384,10 +1728,10 @@
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1410,23 +1754,23 @@
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1439,58 +1783,599 @@
       <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="2">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2">
         <v>44571</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="1">
+        <v>123</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="1">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44592</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$3&amp;"x")=(D3&amp;"x")),0))&gt;1,NOT(ISBLANK(D3)))</formula>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$32&amp;"x")=(D32&amp;"x")),0))&gt;1,NOT(ISBLANK(D32)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$4&amp;"x")=(D4&amp;"x")),0))&gt;1,NOT(ISBLANK(D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$5&amp;"x")=(D5&amp;"x")),0))&gt;1,NOT(ISBLANK(D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$6&amp;"x")=(D6&amp;"x")),0))&gt;1,NOT(ISBLANK(D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$7&amp;"x")=(D7&amp;"x")),0))&gt;1,NOT(ISBLANK(D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(SUMPRODUCT(IFERROR(1*(($D$8&amp;"x")=(D8&amp;"x")),0))&gt;1,NOT(ISBLANK(D8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1503,8 +2388,8 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1547,10 +2432,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1563,14 +2448,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
